--- a/biology/Botanique/Magnolia_schiedeana/Magnolia_schiedeana.xlsx
+++ b/biology/Botanique/Magnolia_schiedeana/Magnolia_schiedeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia schiedeana est une espèce d'arbres de la famille des Magnoliacées endémique du Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnolia poasana possède plusieurs dénominations au Mexique en espagnol : corpus, palo de cacique («bâton de cacique») ou simplement magnolia[2]. En français il est appelé magnolia de Schiede[2]. En anglais il est appelé Schiede magnolia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnolia poasana possède plusieurs dénominations au Mexique en espagnol : corpus, palo de cacique («bâton de cacique») ou simplement magnolia. En français il est appelé magnolia de Schiede. En anglais il est appelé Schiede magnolia.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grand arbre au feuillage coriace persistant pouvant atteindre 30 m. Les feuilles simples, de formes elliptiques à ovales, mesurent entre 10 et 20 cm. Leur marge est entière. Le sommet du limbe est acuminé alors que la base est arrondie ou cunéiforme. Le pétiole mesure entre 2,5 et 4 cm[3]. Les fleurs crème hermaphrodites actinomorphes. Le périanthe est composé de neuf à douze tépales obovaux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand arbre au feuillage coriace persistant pouvant atteindre 30 m. Les feuilles simples, de formes elliptiques à ovales, mesurent entre 10 et 20 cm. Leur marge est entière. Le sommet du limbe est acuminé alors que la base est arrondie ou cunéiforme. Le pétiole mesure entre 2,5 et 4 cm. Les fleurs crème hermaphrodites actinomorphes. Le périanthe est composé de neuf à douze tépales obovaux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente au Mexique dans six États depuis le Sinaloa au Nord jusqu'au Nayarit et au Veracruz au Sud[3] de manière éparse entre 1 500 et 2 100 m[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente au Mexique dans six États depuis le Sinaloa au Nord jusqu'au Nayarit et au Veracruz au Sud de manière éparse entre 1 500 et 2 100 m. 
 </t>
         </is>
       </c>
